--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/11.LÔ 1-2022/181122_250TB_TG102LE-4G_A7670E(GD).xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/11.LÔ 1-2022/181122_250TB_TG102LE-4G_A7670E(GD).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27870" windowHeight="13020" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,15 @@
     <sheet name="3" sheetId="3" r:id="rId3"/>
     <sheet name="4" sheetId="4" r:id="rId4"/>
     <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="12" r:id="rId12"/>
+    <sheet name="13" sheetId="13" r:id="rId13"/>
+    <sheet name="14" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -349,8 +358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,73 +503,119 @@
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>861881054166641</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>862205051153262</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>862205051208116</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>861881054166757</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>861881053428034</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>862205051204339</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>862205051160309</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>861881054161089</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>861881054171096</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>861881053428661</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>862205051159046</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>862205051155937</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>862205051226555</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>861881054167185</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>862205051226167</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>861881052578532</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>861881052581122</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>861881053429818</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>862205051220939</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>862205051207928</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>862205051224154</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>862205051225912</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>862205051153718</v>
+      </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
@@ -573,6 +628,900 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051150409</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051149989</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881052581098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054165411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051220822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881054164299</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881052578607</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051155614</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881052581635</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051228502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051228544</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051222232</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051220376</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051208710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051203588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881053429487</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881052583565</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051219972</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051220525</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051221655</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051203547</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051206003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051220483</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881052583805</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051204495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881054165601</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051220327</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051219907</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051205427</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051222091</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051220921</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051204958</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051222604</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051208520</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881052581171</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051204701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051204503</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881054168191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051208694</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051226985</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051227090</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051206078</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881052583979</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051220012</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881053428281</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881054164240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881053428208</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881053432317</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051222570</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051206060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881054162384</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881054162400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881054162624</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054170353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881052581403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051221879</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881052584258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881052578672</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051155952</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051203935</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881052585628</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051203851</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>861881052583243</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051203794</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051204610</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054168159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881054167078</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>861881054167524</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051225615</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>861881054170783</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051228221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881054162319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881054169488</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881052589505</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881052584035</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051208363</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881052583839</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881052589018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881054168126</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051209023</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051227454</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881054162525</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881054165395</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881054165270</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051205955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054169124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051203505</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051220970</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051204818</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881054166328</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051222430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054160875</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881054161006</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051208819</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881053429594</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051208421</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881052583383</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054161014</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051208876</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881054165809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881053427572</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051222802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881054167508</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881054169173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881054165528</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881054168357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881054160859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051226258</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051205567</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051208454</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881053427895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881053429404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>861881054165155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051204636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051205799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051150094</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051206359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051205732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051205716</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>861881054162343</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881053433208</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051206136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881054160750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051208629</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881054163697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881053427473</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051205740</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881053433067</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881053428224</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881054171922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051206375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881054162616</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881054166062</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051204479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051204206</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881053428190</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051220541</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881054163580</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054167326</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881054166146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881054167607</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881052584571</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051223461</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051150466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881054166120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881052582476</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051228924</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054165189</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881052584159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881052584464</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051208397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881054165379</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051208157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051223511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051159467</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881053430568</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051206144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051160242</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051225979</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051225920</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -580,8 +1529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A55" sqref="A1:B55"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H32" sqref="H31:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -590,154 +1539,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1">
+        <v>862205051158907</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>862205051221366</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>862205051221499</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>862205051227223</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>861881053427903</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>862205051225623</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>862205051152959</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>862205051220475</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>862205051151910</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>862205051204339</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>861881053433182</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>862205051223297</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>862205051160333</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>862205051204727</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>861881054164620</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>862205051225888</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>862205051226779</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>862205051223826</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>862205051208066</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>861881053427259</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>862205051207878</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>862205051149930</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>862205051158667</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>861881053427283</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>862205051208751</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>862205051223289</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>861881052583649</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>862205051208868</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>862205051152702</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>862205051228791</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>862205051158584</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>862205051158535</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>862205051158600</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>861881054171617</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>862205051227181</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>862205051152694</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>862205051226878</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>862205051152082</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>862205051204800</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>862205051228270</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>862205051206557</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>862205051155622</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>862205051150763</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>862205051156380</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>862205051228775</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>862205051223156</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>861881052585859</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>861881053433034</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>861881054163044</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>862205051222943</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -748,8 +1797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="A52" sqref="A1:A52"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -758,154 +1807,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1">
+        <v>861881054164166</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>861881052583433</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>861881054168183</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>861881052583920</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>861881054164786</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>861881054165932</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>861881052576460</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>861881052586451</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>861881054169793</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>861881054166070</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>862205051222463</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>861881054165353</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>862205051208595</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>861881052590826</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>862205051151936</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>862205051221440</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>862205051151613</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>862205051158139</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>862205051225961</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>862205051160796</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>862205051221044</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>862205051155903</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>862205051159772</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>861881052587368</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>861881054164794</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>862205051221390</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>862205051225839</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>861881054168977</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>861881053434578</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>861881054168340</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>861881052587376</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>861881054166054</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>861881054166302</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>861881052581411</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>862205051205492</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>861881053430816</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>862205051155804</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>861881052582443</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>861881053432499</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>862205051155671</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>862205051155911</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>861881053428729</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>862205051219600</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>861881052588978</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>862205051158162</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>862205051159061</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>861881053434537</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>861881053434529</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>861881052577963</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>862205051227405</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -917,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B50"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -927,154 +2076,254 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1">
+        <v>861881054165015</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>861881053427440</v>
+      </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>862205051222042</v>
+      </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>862205051222125</v>
+      </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>862205051203539</v>
+      </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>862205051204008</v>
+      </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>862205051203067</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>862205051158899</v>
+      </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>861881052585776</v>
+      </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>861881052581445</v>
+      </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>862205051221549</v>
+      </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>861881053433125</v>
+      </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>861881053427457</v>
+      </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>862205051158675</v>
+      </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>861881053432630</v>
+      </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>861881054162244</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>862205051224519</v>
+      </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>862205051201491</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>862205051202267</v>
+      </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>861881053429826</v>
+      </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>861881053427416</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>862205051159202</v>
+      </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>862205051159145</v>
+      </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>862205051158394</v>
+      </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>862205051221705</v>
+      </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="1">
+        <v>861881052581726</v>
+      </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="1">
+        <v>862205051155945</v>
+      </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="1">
+        <v>861881053427317</v>
+      </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+      <c r="A29" s="1">
+        <v>862205051203109</v>
+      </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+      <c r="A30" s="1">
+        <v>862205051226944</v>
+      </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+      <c r="A31" s="1">
+        <v>861881052578284</v>
+      </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+      <c r="A32" s="1">
+        <v>862205051208082</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+      <c r="A33" s="1">
+        <v>862205051206227</v>
+      </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+      <c r="A34" s="1">
+        <v>862205051201459</v>
+      </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
+      <c r="A35" s="1">
+        <v>862205051204586</v>
+      </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
+      <c r="A36" s="1">
+        <v>862205051207282</v>
+      </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1">
+        <v>861881053427937</v>
+      </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
+      <c r="A38" s="1">
+        <v>861881052587350</v>
+      </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
+      <c r="A39" s="1">
+        <v>862205051220384</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
+      <c r="A40" s="1">
+        <v>862205051219717</v>
+      </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
+      <c r="A41" s="1">
+        <v>861881052576353</v>
+      </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
+      <c r="A42" s="1">
+        <v>861881053434446</v>
+      </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1"/>
+      <c r="A43" s="1">
+        <v>862205051226043</v>
+      </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1"/>
+      <c r="A44" s="1">
+        <v>862205051222380</v>
+      </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1">
+        <v>861881052581189</v>
+      </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
+      <c r="A46" s="1">
+        <v>861881053428653</v>
+      </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
+      <c r="A47" s="1">
+        <v>862205051223016</v>
+      </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1"/>
+      <c r="A48" s="1">
+        <v>861881053432432</v>
+      </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1"/>
+      <c r="A49" s="1">
+        <v>861881052583417</v>
+      </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1"/>
+      <c r="A50" s="1">
+        <v>861881054170171</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,17 +2333,1344 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A50" sqref="A1:B50"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051224501</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051160424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051227728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881053432937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051224022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051227629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051159285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051221267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051223412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881053433158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051221192</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051224261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051160614</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>861881054170528</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881054169165</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051151035</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881053432697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051227694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881054165668</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051203125</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881054169439</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051159822</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881052583540</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051205286</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881053429677</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051224790</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051224147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881054171286</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051227470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881053436797</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881054165916</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881053431400</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051224766</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051202143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051224840</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051205534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881054162061</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051227983</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>862205051220871</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881053432994</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051227579</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054161659</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881054169231</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051207712</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051155770</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881053427515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051204669</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051159681</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051224162</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881052583300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>861881052585933</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881054169579</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881052578839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051205062</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051207860</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>861881053432747</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881053432879</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051155002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051226837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051155242</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881052582211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881054165676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>861881052583912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>861881054165320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881052578003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051205419</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>862205051207811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>861881052578045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>862205051155010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051155051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881054169538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881054165205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881054168332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881054169454</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881054168647</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051219741</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>861881054168563</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051221200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>861881052585735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>861881054161584</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>861881052585651</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051208579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881054166351</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051150284</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881052575215</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051209056</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051224329</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881052585503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054164687</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881054166708</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051208652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054166724</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051223602</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051226274</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881054166609</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881054165957</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881052577948</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054160792</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>861881054166674</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>861881054166377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051206946</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051221259</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881053437027</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051224725</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>862205051221218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051201046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881054162392</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051150391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>861881052589257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881052576197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881052588986</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>861881053436946</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051221135</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051229351</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051224303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054171567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881054169512</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>862205051155036</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881053431046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>861881052589414</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>862205051221416</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881052576668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881054165486</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>861881052589042</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051207241</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881053427994</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051225136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>861881053436771</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051207613</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051158857</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051221226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>862205051155663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051224592</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881054162541</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881054169595</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054169983</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>861881054162574</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>861881054167334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881054169413</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>862205051152744</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051223164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881054167417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881054166435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>861881054164422</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881052585784</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881054169082</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054165197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>861881054172102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051208264</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051150201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051155788</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>862205051226076</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>862205051155440</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>862205051226282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881054163028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051207464</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>861881052581031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>861881052581015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051155457</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>862205051206904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>861881052576262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051225375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051224568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051207845</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>861881054162749</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>862205051223271</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881054158150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>861881054162715</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881054165551</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>861881053431103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881052589448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>861881054169132</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>861881053432788</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051223008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>861881054167896</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>862205051158782</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051200998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051223628</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051149971</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051205963</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051155556</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881052576213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>862205051208603</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>862205051208173</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>861881054162921</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>861881054163341</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051206847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051207969</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881053427523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881053428315</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>862205051207571</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>862205051207654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>861881053427879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>861881052580983</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>861881054164489</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>862205051150300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>861881054168241</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051206425</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051155077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051224220</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>862205051204883</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>861881052583391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>861881052583755</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>861881052578102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>861881052573665</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>862205051207951</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>862205051155382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>862205051205880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>862205051155473</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>861881053431129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>862205051223206</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>862205051155515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>862205051206292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>862205051222372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>862205051206219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>861881054165031</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>861881054165965</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>861881052585693</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>861881053430964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>862205051221424</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>861881054168910</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>862205051203430</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>862205051155085</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>862205051203729</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>862205051220152</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>861881052584191</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>862205051206961</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>862205051203919</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>862205051206417</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>862205051205922</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>862205051156042</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>861881053427150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>861881053428331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>861881054160735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>862205051205948</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>862205051208462</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>862205051150045</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>862205051206771</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>861881053427192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>861881053428083</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>861881052587426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>861881052583607</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>862205051204693</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>862205051205401</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>862205051203661</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>861881054167987</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>862205051226860</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>862205051208645</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>862205051208280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>862205051158006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
